--- a/AnkiCardTemplate.xlsx
+++ b/AnkiCardTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulk\Documents\Git Repos\congrab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90117F3C-E45A-442A-9B49-3652A6C3C479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D0213-6D47-4C4D-9BE8-F5506D4D12E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73567796-1870-45AE-BCF8-86233CBE6291}"/>
+    <workbookView xWindow="12735" yWindow="690" windowWidth="21600" windowHeight="11040" xr2:uid="{73567796-1870-45AE-BCF8-86233CBE6291}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
